--- a/commands.xlsx
+++ b/commands.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT-STARE-MISTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E960EE-0E61-499F-A8E2-D3E3FBFD2998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34739F5-9E89-4FD9-BAA8-522A5EC5BCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>echo "# sm" &gt;&gt; README.md</t>
   </si>
@@ -52,13 +52,22 @@
   </si>
   <si>
     <t>…or push an existing repository from the command line</t>
+  </si>
+  <si>
+    <t>git status</t>
+  </si>
+  <si>
+    <t>git add .</t>
+  </si>
+  <si>
+    <t>git commit -m ""</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +81,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -95,9 +112,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -380,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:B13"/>
+  <dimension ref="B1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -451,7 +471,28 @@
         <v>6</v>
       </c>
     </row>
+    <row r="16" spans="2:2" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>